--- a/metrics/transfer_time/cleaned_data/nginx_05._tmp.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_05._tmp.xlsx
@@ -2882,9 +2882,15 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>8345028</v>
+      </c>
+      <c r="C144" t="n">
+        <v>33340</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8388573</v>
+      </c>
       <c r="E144" t="n">
         <v>35</v>
       </c>
